--- a/results/Homeopathy_excluded/mod2.galtan.eff.CAM.contrast.xlsx
+++ b/results/Homeopathy_excluded/mod2.galtan.eff.CAM.contrast.xlsx
@@ -416,25 +416,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.195016780722609</v>
+        <v>0.195021162697341</v>
       </c>
       <c r="C2" t="n">
-        <v>0.117892197730903</v>
+        <v>0.117892544820561</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0360476808882355</v>
+        <v>-0.0360439791967322</v>
       </c>
       <c r="F2" t="n">
-        <v>0.426081242333454</v>
+        <v>0.426086304591414</v>
       </c>
       <c r="G2" t="n">
-        <v>1.6541958202166</v>
+        <v>1.65422811929435</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0980877318544232</v>
+        <v>0.0980811715388725</v>
       </c>
     </row>
     <row r="3">
@@ -442,25 +442,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1013945546539</v>
+        <v>0.101394321669156</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0404559736212086</v>
+        <v>0.0404558966603715</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0221023033968283</v>
+        <v>0.0221022212525538</v>
       </c>
       <c r="F3" t="n">
-        <v>0.180686805910971</v>
+        <v>0.180686422085758</v>
       </c>
       <c r="G3" t="n">
-        <v>2.50629377019231</v>
+        <v>2.50629277903206</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0122004206400646</v>
+        <v>0.0122004548436984</v>
       </c>
     </row>
     <row r="4">
@@ -468,25 +468,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0388728988373057</v>
+        <v>0.0388732684183127</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0283211683428828</v>
+        <v>0.0283211122905832</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0166355711148406</v>
+        <v>-0.0166350916733451</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0943813687894519</v>
+        <v>0.0943816285099704</v>
       </c>
       <c r="G4" t="n">
-        <v>1.37257398306008</v>
+        <v>1.37258974928178</v>
       </c>
       <c r="H4" t="n">
-        <v>0.169884824581717</v>
+        <v>0.169879920401524</v>
       </c>
     </row>
     <row r="5">
@@ -494,25 +494,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0936222260687094</v>
+        <v>-0.0936268410281846</v>
       </c>
       <c r="C5" t="n">
-        <v>0.119201647470577</v>
+        <v>0.119202024000738</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.32725316200888</v>
+        <v>-0.32725851495391</v>
       </c>
       <c r="F5" t="n">
-        <v>0.140008709871461</v>
+        <v>0.14000483289754</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.785410504429636</v>
+        <v>-0.785446738954745</v>
       </c>
       <c r="H5" t="n">
-        <v>0.432212923859426</v>
+        <v>0.432191686285158</v>
       </c>
     </row>
     <row r="6">
@@ -520,25 +520,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.156143881885303</v>
+        <v>-0.156147894279028</v>
       </c>
       <c r="C6" t="n">
-        <v>0.115850185095511</v>
+        <v>0.115850559756569</v>
       </c>
       <c r="D6" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.383206072274804</v>
+        <v>-0.383210818990709</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0709183085041978</v>
+        <v>0.0709150304326526</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.34780865267131</v>
+        <v>-1.34783892807366</v>
       </c>
       <c r="H6" t="n">
-        <v>0.177719934206566</v>
+        <v>0.177710194317367</v>
       </c>
     </row>
     <row r="7">
@@ -546,25 +546,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0625216558165939</v>
+        <v>-0.0625210532508435</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0316557496015034</v>
+        <v>0.0316556991147845</v>
       </c>
       <c r="D7" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.124565784939159</v>
+        <v>-0.124565083421258</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.000477526694029139</v>
+        <v>-0.000477023080429351</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.97504897541977</v>
+        <v>-1.97503309038098</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0482625904096799</v>
+        <v>0.0482643929425317</v>
       </c>
     </row>
   </sheetData>
